--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F9-Lrp1.xlsx
@@ -537,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3743903333333334</v>
+        <v>0.24168</v>
       </c>
       <c r="H2">
-        <v>1.123171</v>
+        <v>0.72504</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>8.849014167022556</v>
+        <v>0.46376128264</v>
       </c>
       <c r="R2">
-        <v>79.64112750320301</v>
+        <v>4.17385154376</v>
       </c>
       <c r="S2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="T2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3743903333333334</v>
+        <v>0.24168</v>
       </c>
       <c r="H3">
-        <v>1.123171</v>
+        <v>0.72504</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>67.87262126075046</v>
+        <v>43.81377841744001</v>
       </c>
       <c r="R3">
-        <v>610.8535913467541</v>
+        <v>394.32400575696</v>
       </c>
       <c r="S3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="T3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3743903333333334</v>
+        <v>0.24168</v>
       </c>
       <c r="H4">
-        <v>1.123171</v>
+        <v>0.72504</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>11.28526254368644</v>
+        <v>7.02024144952</v>
       </c>
       <c r="R4">
-        <v>101.567362893178</v>
+        <v>63.18217304568</v>
       </c>
       <c r="S4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="T4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3743903333333334</v>
+        <v>0.24168</v>
       </c>
       <c r="H5">
-        <v>1.123171</v>
+        <v>0.72504</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>41.59497057525211</v>
+        <v>19.78743044896</v>
       </c>
       <c r="R5">
-        <v>374.354735177269</v>
+        <v>178.08687404064</v>
       </c>
       <c r="S5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="T5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
     </row>
   </sheetData>
